--- a/DataAnalysis.xlsx
+++ b/DataAnalysis.xlsx
@@ -623,11 +623,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205384320"/>
-        <c:axId val="205997184"/>
+        <c:axId val="195066880"/>
+        <c:axId val="195073536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205384320"/>
+        <c:axId val="195066880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -658,12 +658,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205997184"/>
+        <c:crossAx val="195073536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205997184"/>
+        <c:axId val="195073536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1225"/>
@@ -700,7 +700,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205384320"/>
+        <c:crossAx val="195066880"/>
         <c:crossesAt val="-40"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -838,34 +838,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-82.554945054945065</c:v>
+                  <c:v>-165.10989010989013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-83.65384615384616</c:v>
+                  <c:v>-167.30769230769232</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-84.478021978021985</c:v>
+                  <c:v>-168.95604395604397</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-86.126373626373635</c:v>
+                  <c:v>-172.25274725274727</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-80.219780219780233</c:v>
+                  <c:v>-160.43956043956047</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-77.884615384615387</c:v>
+                  <c:v>-155.76923076923077</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-75.961538461538467</c:v>
+                  <c:v>-151.92307692307693</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-74.175824175824175</c:v>
+                  <c:v>-148.35164835164835</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-73.214285714285722</c:v>
+                  <c:v>-146.42857142857144</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-72.664835164835168</c:v>
+                  <c:v>-145.32967032967034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -949,34 +949,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>75.686813186813197</c:v>
+                  <c:v>151.37362637362639</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.824175824175825</c:v>
+                  <c:v>151.64835164835165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76.64835164835165</c:v>
+                  <c:v>153.2967032967033</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78.296703296703299</c:v>
+                  <c:v>156.5934065934066</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72.80219780219781</c:v>
+                  <c:v>145.60439560439562</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71.15384615384616</c:v>
+                  <c:v>142.30769230769232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69.917582417582423</c:v>
+                  <c:v>139.83516483516485</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67.307692307692307</c:v>
+                  <c:v>134.61538461538461</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>66.620879120879124</c:v>
+                  <c:v>133.24175824175825</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66.346153846153854</c:v>
+                  <c:v>132.69230769230771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1060,34 +1060,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-55.524861878453045</c:v>
+                  <c:v>-111.04972375690609</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-54.419889502762437</c:v>
+                  <c:v>-108.83977900552487</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-56.491712707182323</c:v>
+                  <c:v>-112.98342541436465</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-57.872928176795583</c:v>
+                  <c:v>-115.74585635359117</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-53.729281767955804</c:v>
+                  <c:v>-107.45856353591161</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-52.486187845303867</c:v>
+                  <c:v>-104.97237569060773</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-51.657458563535911</c:v>
+                  <c:v>-103.31491712707182</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-50.552486187845304</c:v>
+                  <c:v>-101.10497237569061</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-49.171270718232044</c:v>
+                  <c:v>-98.342541436464089</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-48.895027624309392</c:v>
+                  <c:v>-97.790055248618785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1171,34 +1171,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>67.127071823204417</c:v>
+                  <c:v>134.25414364640883</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.95580110497238</c:v>
+                  <c:v>135.91160220994476</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.232044198895025</c:v>
+                  <c:v>136.46408839779005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68.922651933701658</c:v>
+                  <c:v>137.84530386740332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.364640883977899</c:v>
+                  <c:v>128.7292817679558</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.812154696132602</c:v>
+                  <c:v>127.6243093922652</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62.15469613259669</c:v>
+                  <c:v>124.30939226519338</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.35911602209945</c:v>
+                  <c:v>120.7182320441989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59.806629834254146</c:v>
+                  <c:v>119.61325966850829</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58.97790055248619</c:v>
+                  <c:v>117.95580110497238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1281,34 +1281,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-3.4340659340659343</c:v>
+                  <c:v>-6.8681318681318686</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.9148351648351678</c:v>
+                  <c:v>-7.8296703296703356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.9148351648351678</c:v>
+                  <c:v>-7.8296703296703356</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.9148351648351678</c:v>
+                  <c:v>-7.8296703296703356</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.7087912087912116</c:v>
+                  <c:v>-7.4175824175824232</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.3653846153846132</c:v>
+                  <c:v>-6.7307692307692264</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.0219780219780219</c:v>
+                  <c:v>-6.0439560439560438</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.4340659340659343</c:v>
+                  <c:v>-6.8681318681318686</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.2967032967032992</c:v>
+                  <c:v>-6.5934065934065984</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.159340659340657</c:v>
+                  <c:v>-6.318681318681314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1391,34 +1391,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.8011049723756862</c:v>
+                  <c:v>11.602209944751372</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7679558011049714</c:v>
+                  <c:v>13.535911602209943</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.870165745856351</c:v>
+                  <c:v>11.740331491712702</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5248618784530379</c:v>
+                  <c:v>11.049723756906076</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3176795580110472</c:v>
+                  <c:v>10.635359116022094</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.6629834254143674</c:v>
+                  <c:v>11.325966850828735</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2486187845303895</c:v>
+                  <c:v>10.497237569060779</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9033149171270729</c:v>
+                  <c:v>9.8066298342541458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3176795580110507</c:v>
+                  <c:v>10.635359116022101</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0414364640883988</c:v>
+                  <c:v>10.082872928176798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1433,11 +1433,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205870208"/>
-        <c:axId val="205872512"/>
+        <c:axId val="195937024"/>
+        <c:axId val="195939328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205870208"/>
+        <c:axId val="195937024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -1476,12 +1476,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205872512"/>
+        <c:crossAx val="195939328"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205872512"/>
+        <c:axId val="195939328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1516,7 +1516,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205870208"/>
+        <c:crossAx val="195937024"/>
         <c:crossesAt val="-100"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1692,34 +1692,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-82.554945054945065</c:v>
+                  <c:v>-165.10989010989013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-83.65384615384616</c:v>
+                  <c:v>-167.30769230769232</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-84.478021978021985</c:v>
+                  <c:v>-168.95604395604397</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-86.126373626373635</c:v>
+                  <c:v>-172.25274725274727</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-80.219780219780233</c:v>
+                  <c:v>-160.43956043956047</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-77.884615384615387</c:v>
+                  <c:v>-155.76923076923077</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-75.961538461538467</c:v>
+                  <c:v>-151.92307692307693</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-74.175824175824175</c:v>
+                  <c:v>-148.35164835164835</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-73.214285714285722</c:v>
+                  <c:v>-146.42857142857144</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-72.664835164835168</c:v>
+                  <c:v>-145.32967032967034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1774,8 +1774,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.5935691012761336"/>
-                  <c:y val="-0.39266205719770358"/>
+                  <c:x val="-0.4528947279181792"/>
+                  <c:y val="-0.31440773063637928"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1841,34 +1841,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>75.686813186813197</c:v>
+                  <c:v>151.37362637362639</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.824175824175825</c:v>
+                  <c:v>151.64835164835165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76.64835164835165</c:v>
+                  <c:v>153.2967032967033</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78.296703296703299</c:v>
+                  <c:v>156.5934065934066</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72.80219780219781</c:v>
+                  <c:v>145.60439560439562</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71.15384615384616</c:v>
+                  <c:v>142.30769230769232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69.917582417582423</c:v>
+                  <c:v>139.83516483516485</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67.307692307692307</c:v>
+                  <c:v>134.61538461538461</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>66.620879120879124</c:v>
+                  <c:v>133.24175824175825</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66.346153846153854</c:v>
+                  <c:v>132.69230769230771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1923,8 +1923,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.67717564938003438"/>
-                  <c:y val="0.19290592061996764"/>
+                  <c:x val="-0.66892043851922023"/>
+                  <c:y val="0.18688635703832732"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1990,34 +1990,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-55.524861878453045</c:v>
+                  <c:v>-111.04972375690609</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-54.419889502762437</c:v>
+                  <c:v>-108.83977900552487</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-56.491712707182323</c:v>
+                  <c:v>-112.98342541436465</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-57.872928176795583</c:v>
+                  <c:v>-115.74585635359117</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-53.729281767955804</c:v>
+                  <c:v>-107.45856353591161</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-52.486187845303867</c:v>
+                  <c:v>-104.97237569060773</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-51.657458563535911</c:v>
+                  <c:v>-103.31491712707182</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-50.552486187845304</c:v>
+                  <c:v>-101.10497237569061</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-49.171270718232044</c:v>
+                  <c:v>-98.342541436464089</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-48.895027624309392</c:v>
+                  <c:v>-97.790055248618785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2139,34 +2139,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>67.127071823204417</c:v>
+                  <c:v>134.25414364640883</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.95580110497238</c:v>
+                  <c:v>135.91160220994476</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.232044198895025</c:v>
+                  <c:v>136.46408839779005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68.922651933701658</c:v>
+                  <c:v>137.84530386740332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.364640883977899</c:v>
+                  <c:v>128.7292817679558</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.812154696132602</c:v>
+                  <c:v>127.6243093922652</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62.15469613259669</c:v>
+                  <c:v>124.30939226519338</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.35911602209945</c:v>
+                  <c:v>120.7182320441989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59.806629834254146</c:v>
+                  <c:v>119.61325966850829</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58.97790055248619</c:v>
+                  <c:v>117.95580110497238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2287,34 +2287,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-3.4340659340659343</c:v>
+                  <c:v>-6.8681318681318686</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.9148351648351678</c:v>
+                  <c:v>-7.8296703296703356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.9148351648351678</c:v>
+                  <c:v>-7.8296703296703356</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.9148351648351678</c:v>
+                  <c:v>-7.8296703296703356</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.7087912087912116</c:v>
+                  <c:v>-7.4175824175824232</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.3653846153846132</c:v>
+                  <c:v>-6.7307692307692264</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.0219780219780219</c:v>
+                  <c:v>-6.0439560439560438</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.4340659340659343</c:v>
+                  <c:v>-6.8681318681318686</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.2967032967032992</c:v>
+                  <c:v>-6.5934065934065984</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.159340659340657</c:v>
+                  <c:v>-6.318681318681314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2435,34 +2435,89 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.8011049723756862</c:v>
+                  <c:v>11.602209944751372</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7679558011049714</c:v>
+                  <c:v>13.535911602209943</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.870165745856351</c:v>
+                  <c:v>11.740331491712702</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5248618784530379</c:v>
+                  <c:v>11.049723756906076</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3176795580110472</c:v>
+                  <c:v>10.635359116022094</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.6629834254143674</c:v>
+                  <c:v>11.325966850828735</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2486187845303895</c:v>
+                  <c:v>10.497237569060779</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9033149171270729</c:v>
+                  <c:v>9.8066298342541458</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3176795580110507</c:v>
+                  <c:v>10.635359116022101</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0414364640883988</c:v>
+                  <c:v>10.082872928176798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>iso</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1108'!$H$18:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1108'!$I$18:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2477,11 +2532,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206079104"/>
-        <c:axId val="206081024"/>
+        <c:axId val="196272896"/>
+        <c:axId val="196274816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206079104"/>
+        <c:axId val="196272896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2710"/>
@@ -2520,16 +2575,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206081024"/>
+        <c:crossAx val="196274816"/>
         <c:crossesAt val="-1000"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206081024"/>
+        <c:axId val="196274816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="120"/>
-          <c:min val="-120"/>
+          <c:max val="240"/>
+          <c:min val="-240"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2562,10 +2617,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206079104"/>
+        <c:crossAx val="196272896"/>
         <c:crossesAt val="-1000"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="20"/>
+        <c:majorUnit val="30"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2594,14 +2649,18 @@
         <c:idx val="11"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="12"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.83231706489275048"/>
           <c:y val="0.10297708732354403"/>
-          <c:w val="0.16350574712643681"/>
-          <c:h val="0.78200021872265968"/>
+          <c:w val="0.13628684962911775"/>
+          <c:h val="0.32655374060183784"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2714,16 +2773,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>410441</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>41563</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>88056</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>530522</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>44176</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>208137</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>7542</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2732,8 +2791,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3631623" y="3470563"/>
-          <a:ext cx="6787581" cy="3622113"/>
+          <a:off x="3912710" y="2100429"/>
+          <a:ext cx="6809562" cy="3622113"/>
           <a:chOff x="979984" y="1397682"/>
           <a:chExt cx="6825681" cy="3622113"/>
         </a:xfrm>
@@ -5170,8 +5229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AG39" sqref="AG39"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5343,36 +5402,36 @@
         <v>598</v>
       </c>
       <c r="V3" s="4">
-        <f>100/R3</f>
-        <v>0.13736263736263737</v>
+        <f>200/R3</f>
+        <v>0.27472527472527475</v>
       </c>
       <c r="W3" s="4">
-        <f>100/S3</f>
-        <v>0.13812154696132597</v>
+        <f>200/S3</f>
+        <v>0.27624309392265195</v>
       </c>
       <c r="X3" s="13">
         <f>(H3-$T3)*$V3</f>
-        <v>-82.554945054945065</v>
+        <v>-165.10989010989013</v>
       </c>
       <c r="Y3" s="13">
         <f>(I3-$T3)*$V3</f>
-        <v>75.686813186813197</v>
+        <v>151.37362637362639</v>
       </c>
       <c r="Z3" s="4">
         <f>(J3-$U3)*$W3</f>
-        <v>-55.524861878453045</v>
+        <v>-111.04972375690609</v>
       </c>
       <c r="AA3" s="4">
         <f>(K3-$U3)*$W3</f>
-        <v>67.127071823204417</v>
+        <v>134.25414364640883</v>
       </c>
       <c r="AB3" s="13">
         <f>AVERAGE(X3:Y3)</f>
-        <v>-3.4340659340659343</v>
+        <v>-6.8681318681318686</v>
       </c>
       <c r="AC3" s="4">
         <f>AVERAGE(Z3:AA3)</f>
-        <v>5.8011049723756862</v>
+        <v>11.602209944751372</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -5441,36 +5500,36 @@
         <v>598</v>
       </c>
       <c r="V4" s="4">
-        <f t="shared" ref="V4:V12" si="7">100/R4</f>
-        <v>0.13736263736263737</v>
+        <f t="shared" ref="V4:V12" si="7">200/R4</f>
+        <v>0.27472527472527475</v>
       </c>
       <c r="W4" s="4">
-        <f t="shared" ref="W4:W12" si="8">100/S4</f>
-        <v>0.13812154696132597</v>
+        <f t="shared" ref="W4:W12" si="8">200/S4</f>
+        <v>0.27624309392265195</v>
       </c>
       <c r="X4" s="13">
         <f t="shared" ref="X4:Y12" si="9">(H4-$T4)*$V4</f>
-        <v>-83.65384615384616</v>
+        <v>-167.30769230769232</v>
       </c>
       <c r="Y4" s="13">
         <f t="shared" si="9"/>
-        <v>75.824175824175825</v>
+        <v>151.64835164835165</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" ref="Z4:AA12" si="10">(J4-$U4)*$W4</f>
-        <v>-54.419889502762437</v>
+        <v>-108.83977900552487</v>
       </c>
       <c r="AA4" s="4">
         <f t="shared" si="10"/>
-        <v>67.95580110497238</v>
+        <v>135.91160220994476</v>
       </c>
       <c r="AB4" s="13">
         <f t="shared" ref="AB4:AB12" si="11">AVERAGE(X4:Y4)</f>
-        <v>-3.9148351648351678</v>
+        <v>-7.8296703296703356</v>
       </c>
       <c r="AC4" s="4">
         <f t="shared" ref="AC4:AC12" si="12">AVERAGE(Z4:AA4)</f>
-        <v>6.7679558011049714</v>
+        <v>13.535911602209943</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -5534,35 +5593,35 @@
       </c>
       <c r="V5" s="4">
         <f t="shared" si="7"/>
-        <v>0.13736263736263737</v>
+        <v>0.27472527472527475</v>
       </c>
       <c r="W5" s="4">
         <f t="shared" si="8"/>
-        <v>0.13812154696132597</v>
+        <v>0.27624309392265195</v>
       </c>
       <c r="X5" s="13">
         <f t="shared" si="9"/>
-        <v>-84.478021978021985</v>
+        <v>-168.95604395604397</v>
       </c>
       <c r="Y5" s="13">
         <f t="shared" si="9"/>
-        <v>76.64835164835165</v>
+        <v>153.2967032967033</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="10"/>
-        <v>-56.491712707182323</v>
+        <v>-112.98342541436465</v>
       </c>
       <c r="AA5" s="4">
         <f t="shared" si="10"/>
-        <v>68.232044198895025</v>
+        <v>136.46408839779005</v>
       </c>
       <c r="AB5" s="13">
         <f t="shared" si="11"/>
-        <v>-3.9148351648351678</v>
+        <v>-7.8296703296703356</v>
       </c>
       <c r="AC5" s="4">
         <f t="shared" si="12"/>
-        <v>5.870165745856351</v>
+        <v>11.740331491712702</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -5629,35 +5688,35 @@
       </c>
       <c r="V6" s="4">
         <f t="shared" si="7"/>
-        <v>0.13736263736263737</v>
+        <v>0.27472527472527475</v>
       </c>
       <c r="W6" s="4">
         <f t="shared" si="8"/>
-        <v>0.13812154696132597</v>
+        <v>0.27624309392265195</v>
       </c>
       <c r="X6" s="13">
         <f t="shared" si="9"/>
-        <v>-86.126373626373635</v>
+        <v>-172.25274725274727</v>
       </c>
       <c r="Y6" s="13">
         <f t="shared" si="9"/>
-        <v>78.296703296703299</v>
+        <v>156.5934065934066</v>
       </c>
       <c r="Z6" s="4">
         <f t="shared" si="10"/>
-        <v>-57.872928176795583</v>
+        <v>-115.74585635359117</v>
       </c>
       <c r="AA6" s="4">
         <f t="shared" si="10"/>
-        <v>68.922651933701658</v>
+        <v>137.84530386740332</v>
       </c>
       <c r="AB6" s="13">
         <f t="shared" si="11"/>
-        <v>-3.9148351648351678</v>
+        <v>-7.8296703296703356</v>
       </c>
       <c r="AC6" s="4">
         <f t="shared" si="12"/>
-        <v>5.5248618784530379</v>
+        <v>11.049723756906076</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -5727,35 +5786,35 @@
       </c>
       <c r="V7" s="4">
         <f t="shared" si="7"/>
-        <v>0.13736263736263737</v>
+        <v>0.27472527472527475</v>
       </c>
       <c r="W7" s="4">
         <f t="shared" si="8"/>
-        <v>0.13812154696132597</v>
+        <v>0.27624309392265195</v>
       </c>
       <c r="X7" s="13">
         <f t="shared" si="9"/>
-        <v>-80.219780219780233</v>
+        <v>-160.43956043956047</v>
       </c>
       <c r="Y7" s="13">
         <f t="shared" si="9"/>
-        <v>72.80219780219781</v>
+        <v>145.60439560439562</v>
       </c>
       <c r="Z7" s="4">
         <f t="shared" si="10"/>
-        <v>-53.729281767955804</v>
+        <v>-107.45856353591161</v>
       </c>
       <c r="AA7" s="4">
         <f t="shared" si="10"/>
-        <v>64.364640883977899</v>
+        <v>128.7292817679558</v>
       </c>
       <c r="AB7" s="13">
         <f t="shared" si="11"/>
-        <v>-3.7087912087912116</v>
+        <v>-7.4175824175824232</v>
       </c>
       <c r="AC7" s="4">
         <f t="shared" si="12"/>
-        <v>5.3176795580110472</v>
+        <v>10.635359116022094</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -5825,35 +5884,35 @@
       </c>
       <c r="V8" s="4">
         <f t="shared" si="7"/>
-        <v>0.13736263736263737</v>
+        <v>0.27472527472527475</v>
       </c>
       <c r="W8" s="4">
         <f t="shared" si="8"/>
-        <v>0.13812154696132597</v>
+        <v>0.27624309392265195</v>
       </c>
       <c r="X8" s="13">
         <f t="shared" si="9"/>
-        <v>-77.884615384615387</v>
+        <v>-155.76923076923077</v>
       </c>
       <c r="Y8" s="13">
         <f t="shared" si="9"/>
-        <v>71.15384615384616</v>
+        <v>142.30769230769232</v>
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="10"/>
-        <v>-52.486187845303867</v>
+        <v>-104.97237569060773</v>
       </c>
       <c r="AA8" s="4">
         <f t="shared" si="10"/>
-        <v>63.812154696132602</v>
+        <v>127.6243093922652</v>
       </c>
       <c r="AB8" s="13">
         <f t="shared" si="11"/>
-        <v>-3.3653846153846132</v>
+        <v>-6.7307692307692264</v>
       </c>
       <c r="AC8" s="4">
         <f t="shared" si="12"/>
-        <v>5.6629834254143674</v>
+        <v>11.325966850828735</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -5923,35 +5982,35 @@
       </c>
       <c r="V9" s="4">
         <f t="shared" si="7"/>
-        <v>0.13736263736263737</v>
+        <v>0.27472527472527475</v>
       </c>
       <c r="W9" s="4">
         <f t="shared" si="8"/>
-        <v>0.13812154696132597</v>
+        <v>0.27624309392265195</v>
       </c>
       <c r="X9" s="13">
         <f t="shared" si="9"/>
-        <v>-75.961538461538467</v>
+        <v>-151.92307692307693</v>
       </c>
       <c r="Y9" s="13">
         <f t="shared" si="9"/>
-        <v>69.917582417582423</v>
+        <v>139.83516483516485</v>
       </c>
       <c r="Z9" s="4">
         <f t="shared" si="10"/>
-        <v>-51.657458563535911</v>
+        <v>-103.31491712707182</v>
       </c>
       <c r="AA9" s="4">
         <f t="shared" si="10"/>
-        <v>62.15469613259669</v>
+        <v>124.30939226519338</v>
       </c>
       <c r="AB9" s="13">
         <f t="shared" si="11"/>
-        <v>-3.0219780219780219</v>
+        <v>-6.0439560439560438</v>
       </c>
       <c r="AC9" s="4">
         <f t="shared" si="12"/>
-        <v>5.2486187845303895</v>
+        <v>10.497237569060779</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -6017,35 +6076,35 @@
       </c>
       <c r="V10" s="4">
         <f t="shared" si="7"/>
-        <v>0.13736263736263737</v>
+        <v>0.27472527472527475</v>
       </c>
       <c r="W10" s="4">
         <f t="shared" si="8"/>
-        <v>0.13812154696132597</v>
+        <v>0.27624309392265195</v>
       </c>
       <c r="X10" s="13">
         <f t="shared" si="9"/>
-        <v>-74.175824175824175</v>
+        <v>-148.35164835164835</v>
       </c>
       <c r="Y10" s="13">
         <f t="shared" si="9"/>
-        <v>67.307692307692307</v>
+        <v>134.61538461538461</v>
       </c>
       <c r="Z10" s="4">
         <f t="shared" si="10"/>
-        <v>-50.552486187845304</v>
+        <v>-101.10497237569061</v>
       </c>
       <c r="AA10" s="4">
         <f t="shared" si="10"/>
-        <v>60.35911602209945</v>
+        <v>120.7182320441989</v>
       </c>
       <c r="AB10" s="13">
-        <f t="shared" si="11"/>
-        <v>-3.4340659340659343</v>
+        <f>AVERAGE(X10:Y10)</f>
+        <v>-6.8681318681318686</v>
       </c>
       <c r="AC10" s="4">
         <f t="shared" si="12"/>
-        <v>4.9033149171270729</v>
+        <v>9.8066298342541458</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -6113,35 +6172,35 @@
       </c>
       <c r="V11" s="4">
         <f t="shared" si="7"/>
-        <v>0.13736263736263737</v>
+        <v>0.27472527472527475</v>
       </c>
       <c r="W11" s="4">
         <f t="shared" si="8"/>
-        <v>0.13812154696132597</v>
+        <v>0.27624309392265195</v>
       </c>
       <c r="X11" s="13">
         <f t="shared" si="9"/>
-        <v>-73.214285714285722</v>
+        <v>-146.42857142857144</v>
       </c>
       <c r="Y11" s="13">
         <f t="shared" si="9"/>
-        <v>66.620879120879124</v>
+        <v>133.24175824175825</v>
       </c>
       <c r="Z11" s="4">
         <f t="shared" si="10"/>
-        <v>-49.171270718232044</v>
+        <v>-98.342541436464089</v>
       </c>
       <c r="AA11" s="4">
         <f t="shared" si="10"/>
-        <v>59.806629834254146</v>
+        <v>119.61325966850829</v>
       </c>
       <c r="AB11" s="13">
         <f t="shared" si="11"/>
-        <v>-3.2967032967032992</v>
+        <v>-6.5934065934065984</v>
       </c>
       <c r="AC11" s="4">
         <f t="shared" si="12"/>
-        <v>5.3176795580110507</v>
+        <v>10.635359116022101</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -6211,35 +6270,35 @@
       </c>
       <c r="V12" s="4">
         <f t="shared" si="7"/>
-        <v>0.13736263736263737</v>
+        <v>0.27472527472527475</v>
       </c>
       <c r="W12" s="4">
         <f t="shared" si="8"/>
-        <v>0.13812154696132597</v>
+        <v>0.27624309392265195</v>
       </c>
       <c r="X12" s="13">
         <f t="shared" si="9"/>
-        <v>-72.664835164835168</v>
+        <v>-145.32967032967034</v>
       </c>
       <c r="Y12" s="13">
         <f t="shared" si="9"/>
-        <v>66.346153846153854</v>
+        <v>132.69230769230771</v>
       </c>
       <c r="Z12" s="4">
         <f t="shared" si="10"/>
-        <v>-48.895027624309392</v>
+        <v>-97.790055248618785</v>
       </c>
       <c r="AA12" s="4">
         <f t="shared" si="10"/>
-        <v>58.97790055248619</v>
+        <v>117.95580110497238</v>
       </c>
       <c r="AB12" s="13">
         <f t="shared" si="11"/>
-        <v>-3.159340659340657</v>
+        <v>-6.318681318681314</v>
       </c>
       <c r="AC12" s="4">
         <f t="shared" si="12"/>
-        <v>5.0414364640883988</v>
+        <v>10.082872928176798</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -6336,6 +6395,12 @@
       <c r="B18" s="9" t="s">
         <v>4</v>
       </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>250</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
@@ -6344,6 +6409,12 @@
       <c r="B19" s="9">
         <v>3700</v>
       </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>-250</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
@@ -6351,6 +6422,12 @@
       </c>
       <c r="B20" s="9">
         <v>2700</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
